--- a/angkost_result.xlsx
+++ b/angkost_result.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,44 +459,44 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1733562297</v>
+        <v>3042334034</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baju Tidur Piyama Set/Piyama Wanita Import/Baju Piyama Pendek K11-K20</t>
+          <t>Baju Kaos Pria/Baju Kaos Samurai Jepang/Baju Kaos Samurai Warna Hitam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp29.000</t>
+          <t>Rp19.900</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/lapakkumantap/baju-tidur-piyama-set-piyama-wanita-import-baju-piyama-pendek-k11-k20-k17-kuning-poka-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/shinyolshop-1/baju-kaos-pria-baju-kaos-samurai-jepang-baju-kaos-samurai-warna-hitam-hitam-12-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>234.6</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1416952114</v>
+        <v>732844445</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lemari pakaian plastik grand mini club 2 susun</t>
+          <t>Logitech B100 Mouse Kabel USB Optical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp199.000</t>
+          <t>Rp50.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -506,39 +506,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/wonderland/lemari-pakaian-plastik-grand-mini-club-2-susun-coklat-gp?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/logitech/logitech-b100-mouse-kabel-usb-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>926.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1138506071</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Buku Pemrograman Web Dengan Node Js Dan Java Script</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Rp50.000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/saras-wati/buku-pemrograman-web-dengan-node-js-dan-java-script?extParam=ivf%3Dfalse%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>160</v>
+        <v>36882.3</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,86 +567,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2881009667</v>
+        <v>3051912294</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baju Tidur Wanita Setelan Panjang / Piyama Set Kimono</t>
+          <t>Cosmic T-Shirt Jord Black</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp122.000</t>
+          <t>Rp70.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/twinolshop-2/baju-tidur-wanita-setelan-panjang-piyama-set-kimono-hitam-kembg-pth?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/cosmicclothes/cosmic-t-shirt-jord-black-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4089</v>
+        <v>1533.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1682611067</v>
+        <v>1213446787</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lemari Pakaian 3 Pintu Minimalis Nevada Series</t>
+          <t>SLEC Mouse Wireless NC20 - Matte Black</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp788.999</t>
+          <t>Rp73.250</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/margajaya5/lemari-pakaian-3-pintu-minimalis-nevada-series-htm-pth-polos-tanpa-rakit?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/slec-official/slec-mouse-wireless-nc20-matte-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4291.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>310876580</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Buku Belajar Sendiri Pasti Bisa Pemrograman Java+Cd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Rp105.000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/idbuku/buku-belajar-sendiri-pasti-bisa-pemrograman-java-cd?extParam=ivf%3Dfalse%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
+        <v>5419.2</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,16 +675,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1733562297</v>
+        <v>2079270192</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baju Tidur Piyama Set/Piyama Wanita Import/Baju Piyama Pendek K11-K20</t>
+          <t>Lionel~Kaos Print One Piece Size M L Xl Xxl / Baju Kaos Pria / Tshirt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp29.000</t>
+          <t>Rp28.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -750,67 +694,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/lapakkumantap/baju-tidur-piyama-set-piyama-wanita-import-baju-piyama-pendek-k11-k20-k17-kuning-poka-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/lionelonlineshop/lionel-kaos-print-one-piece-size-m-l-xl-xxl-baju-kaos-pria-tshirt-putih-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>234.6</v>
+        <v>1182.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1416952114</v>
+        <v>630382118</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lemari pakaian plastik grand mini club 2 susun</t>
+          <t>Mouse Wireless Alcatroz Airmouse ( Black / White)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp199.000</t>
+          <t>Rp50.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/wonderland/lemari-pakaian-plastik-grand-mini-club-2-susun-coklat-gp?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dbclick/mouse-wireless-alcatroz-airmouse-black-white-putih?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13037795</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>926.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>502168291</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Buku Dasar-Dasar Pemrograman Java Netbeans</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Rp64.000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/tokobuku20/buku-dasar-dasar-pemrograman-java-netbeans?extParam=ivf%3Dfalse%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>58.8</v>
+        <v>1982.4</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,86 +783,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2881009667</v>
+        <v>2017031480</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baju Tidur Wanita Setelan Panjang / Piyama Set Kimono</t>
+          <t>Kaos Polos Henley Tee Kaos Kancing Lengan Pendek Basic T-Shirt Pria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp122.000</t>
+          <t>Rp65.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/twinolshop-2/baju-tidur-wanita-setelan-panjang-piyama-set-kimono-hitam-kembg-pth?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/evernextofficial/kaos-polos-henley-tee-kaos-kancing-lengan-pendek-basic-t-shirt-pria-navy-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4089</v>
+        <v>7795.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1682611067</v>
+        <v>732844445</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lemari Pakaian 3 Pintu Minimalis Nevada Series</t>
+          <t>Logitech B100 Mouse Kabel USB Optical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp788.999</t>
+          <t>Rp50.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/margajaya5/lemari-pakaian-3-pintu-minimalis-nevada-series-htm-pth-polos-tanpa-rakit?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/logitech/logitech-b100-mouse-kabel-usb-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4291.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>506142116</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Termurah Original Buku Pemrograman Berorientasi Objek Menggunakan Java</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Rp55.100</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/gerai212/termurah-original-buku-pemrograman-berorientasi-objek-menggunakan-java?extParam=ivf%3Dfalse%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>795</v>
+        <v>36882.3</v>
       </c>
     </row>
   </sheetData>

--- a/angkost_result.xlsx
+++ b/angkost_result.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,58 +459,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3042334034</v>
+        <v>1851402172</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baju Kaos Pria/Baju Kaos Samurai Jepang/Baju Kaos Samurai Warna Hitam</t>
+          <t>Mouse Logitech M90 Optical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp19.900</t>
+          <t>Rp42.700</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/shinyolshop-1/baju-kaos-pria-baju-kaos-samurai-jepang-baju-kaos-samurai-warna-hitam-hitam-12-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/megacomp/mouse-logitech-m90-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>732844445</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Logitech B100 Mouse Kabel USB Optical</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rp50.000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/logitech/logitech-b100-mouse-kabel-usb-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>36882.3</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,16 +539,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3051912294</v>
+        <v>545554122</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cosmic T-Shirt Jord Black</t>
+          <t>Logitech Pebble M350 Mouse Wireless Bluetooth Slim Silent - Graphite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp70.000</t>
+          <t>Rp282.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -586,39 +558,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/cosmicclothes/cosmic-t-shirt-jord-black-l?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/logitech/logitech-pebble-m350-mouse-wireless-bluetooth-slim-silent-graphite?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D5931369</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1533.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1213446787</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SLEC Mouse Wireless NC20 - Matte Black</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rp73.250</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/slec-official/slec-mouse-wireless-nc20-matte-black?extParam=ivf%3Dfalse%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5419.2</v>
+        <v>25847.5</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,58 +619,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2079270192</v>
+        <v>1851402172</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lionel~Kaos Print One Piece Size M L Xl Xxl / Baju Kaos Pria / Tshirt</t>
+          <t>Mouse Logitech M90 Optical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp28.000</t>
+          <t>Rp42.700</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/lionelonlineshop/lionel-kaos-print-one-piece-size-m-l-xl-xxl-baju-kaos-pria-tshirt-putih-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/megacomp/mouse-logitech-m90-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1182.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>630382118</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mouse Wireless Alcatroz Airmouse ( Black / White)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rp50.000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/dbclick/mouse-wireless-alcatroz-airmouse-black-white-putih?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13037795</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1982.4</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,58 +699,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2017031480</v>
+        <v>224522366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kaos Polos Henley Tee Kaos Kancing Lengan Pendek Basic T-Shirt Pria</t>
+          <t>Logitech B175 Mouse Wireless untuk Windows, Mac, Linux dan ChromeOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp65.000</t>
+          <t>Rp99.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/evernextofficial/kaos-polos-henley-tee-kaos-kancing-lengan-pendek-basic-t-shirt-pria-navy-m?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/logitech/logitech-b175-mouse-wireless-untuk-windows-mac-linux-dan-chromeos?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D5931369</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7795.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>732844445</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Logitech B100 Mouse Kabel USB Optical</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rp50.000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/logitech/logitech-b100-mouse-kabel-usb-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>36882.3</v>
+        <v>173616.8</v>
       </c>
     </row>
   </sheetData>

--- a/angkost_result.xlsx
+++ b/angkost_result.xlsx
@@ -459,30 +459,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1851402172</v>
+        <v>424159251</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouse Logitech M90 Optical</t>
+          <t>Mouse USB Logitech M90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp42.700</t>
+          <t>Rp43.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/megacomp/mouse-logitech-m90-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dbclick/mouse-usb-logitech-m90?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13037795</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>385</v>
+        <v>5002.900000000001</v>
       </c>
     </row>
   </sheetData>
@@ -619,30 +619,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1851402172</v>
+        <v>424159251</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouse Logitech M90 Optical</t>
+          <t>Mouse USB Logitech M90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp42.700</t>
+          <t>Rp43.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/megacomp/mouse-logitech-m90-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/dbclick/mouse-usb-logitech-m90?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13037795</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>385</v>
+        <v>5002.900000000001</v>
       </c>
     </row>
   </sheetData>

--- a/angkost_result.xlsx
+++ b/angkost_result.xlsx
@@ -11,6 +11,7 @@
     <sheet name="HIGH_PRICE (ANGKOST)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="LOW_SCORE (ANGKOST)" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HIGH_SCORE (ANGKOST)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RECOMMENDATION (ANGKOST)" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +484,34 @@
       </c>
       <c r="F2" t="n">
         <v>5002.900000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1414556557</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blinqshop Baju Tidur Piyama Motid Aurel</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rp27.900</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/blinqshop/blinqshop-baju-tidur-piyama-motid-aurel-dst-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1048.8</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,30 +568,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>545554122</v>
+        <v>1862123531</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logitech Pebble M350 Mouse Wireless Bluetooth Slim Silent - Graphite</t>
+          <t>Logitech G304 Lightspeed Wireless Gaming Mouse - Logitech G-304</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp282.000</t>
+          <t>Rp498.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/logitech/logitech-pebble-m350-mouse-wireless-bluetooth-slim-silent-graphite?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D5931369</t>
+          <t>https://www.tokopedia.com/duniacom-srv/logitech-g304-lightspeed-wireless-gaming-mouse-logitech-g-304-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25847.5</v>
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1722207942</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Baju Tidur Wanita Setelan Panjang / Piyama Set Kimono</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rp118.340</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/twinolshop-2/baju-tidur-wanita-setelan-panjang-piyama-set-kimono-pink-leaf?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4107.8</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,30 +676,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>424159251</v>
+        <v>1862123531</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouse USB Logitech M90</t>
+          <t>Logitech G304 Lightspeed Wireless Gaming Mouse - Logitech G-304</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp43.000</t>
+          <t>Rp498.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/duniacom-srv/logitech-g304-lightspeed-wireless-gaming-mouse-logitech-g-304-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1977206481</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lingerie Sexy Outer+Dress Transparan Piyama Baju Tidur Kimono Lr11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rp92.000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/dbclick/mouse-usb-logitech-m90?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13037795</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5002.900000000001</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/officialbianglalaid/lingerie-sexy-outer-dress-transparan-piyama-baju-tidur-kimono-lr11-merah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>955.5000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,7 +807,143 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>173616.8</v>
+        <v>173626.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1722207942</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Baju Tidur Wanita Setelan Panjang / Piyama Set Kimono</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rp118.340</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/twinolshop-2/baju-tidur-wanita-setelan-panjang-piyama-set-kimono-pink-leaf?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4107.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFC400"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Id Produk</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nama Produk</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Harga Produk</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bintang Produk</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Link Produk</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Skor Produk (Rekomendasi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1862123531</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Logitech G304 Lightspeed Wireless Gaming Mouse - Logitech G-304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rp498.000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/duniacom-srv/logitech-g304-lightspeed-wireless-gaming-mouse-logitech-g-304-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>6.973817219257057</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1977206481</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lingerie Sexy Outer+Dress Transparan Piyama Baju Tidur Kimono Lr11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rp92.000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/officialbianglalaid/lingerie-sexy-outer-dress-transparan-piyama-baju-tidur-kimono-lr11-merah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3.482186883868269</v>
       </c>
     </row>
   </sheetData>

--- a/angkost_result.xlsx
+++ b/angkost_result.xlsx
@@ -460,11 +460,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>424159251</v>
+        <v>427948141</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouse USB Logitech M90</t>
+          <t>Mouse Logitech M90 ORIGINAL - HD Optical Wired Mouse - GARANSI RESMI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -479,39 +479,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/dbclick/mouse-usb-logitech-m90?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D13037795</t>
+          <t>https://www.tokopedia.com/mitraecomm/mouse-logitech-m90-original-hd-optical-wired-mouse-garansi-resmi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5002.900000000001</v>
+        <v>2082.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1414556557</v>
+        <v>346543624</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blinqshop Baju Tidur Piyama Motid Aurel</t>
+          <t>Calculator / Kalkulator Joyko CC-38 / 12 Digits / Check Correct</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp27.900</t>
+          <t>Rp22.800</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/blinqshop/blinqshop-baju-tidur-piyama-motid-aurel-dst-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/joyko/calculator-kalkulator-joyko-cc-38-12-digits-check-correct?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D72523</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1048.8</v>
+        <v>1934.4</v>
       </c>
     </row>
   </sheetData>
@@ -568,16 +568,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1862123531</v>
+        <v>1603479667</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logitech G304 Lightspeed Wireless Gaming Mouse - Logitech G-304</t>
+          <t>Mouse Logitech M331 Silent Wireless</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp498.000</t>
+          <t>Rp170.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -587,39 +587,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/duniacom-srv/logitech-g304-lightspeed-wireless-gaming-mouse-logitech-g-304-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/megacomp/mouse-logitech-m331-silent-wireless-biru?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4055</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1722207942</v>
+        <v>1399026774</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baju Tidur Wanita Setelan Panjang / Piyama Set Kimono</t>
+          <t>Canon AS-120V Calculator Desktop Kalkulator Stylish Warna Colorful AS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp118.340</t>
+          <t>Rp59.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/twinolshop-2/baju-tidur-wanita-setelan-panjang-piyama-set-kimono-pink-leaf?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/omegaelectronic/canon-as-120v-calculator-desktop-kalkulator-stylish-warna-colorful-as-orange?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4107.8</v>
+        <v>5470</v>
       </c>
     </row>
   </sheetData>
@@ -676,44 +676,44 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1862123531</v>
+        <v>427948141</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logitech G304 Lightspeed Wireless Gaming Mouse - Logitech G-304</t>
+          <t>Mouse Logitech M90 ORIGINAL - HD Optical Wired Mouse - GARANSI RESMI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp498.000</t>
+          <t>Rp43.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/duniacom-srv/logitech-g304-lightspeed-wireless-gaming-mouse-logitech-g-304-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/mitraecomm/mouse-logitech-m90-original-hd-optical-wired-mouse-garansi-resmi?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4055</v>
+        <v>2082.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1977206481</v>
+        <v>782908488</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lingerie Sexy Outer+Dress Transparan Piyama Baju Tidur Kimono Lr11</t>
+          <t>CASIO CALCULATOR MX-12 B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp92.000</t>
+          <t>Rp58.500</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -723,11 +723,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/officialbianglalaid/lingerie-sexy-outer-dress-transparan-piyama-baju-tidur-kimono-lr11-merah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/sinar-mutiara/casio-calculator-mx-12-b?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D4095789</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>955.5000000000001</v>
+        <v>823.2</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +793,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp99.000</t>
+          <t>Rp95.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -803,39 +803,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/logitech/logitech-b175-mouse-wireless-untuk-windows-mac-linux-dan-chromeos?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D5931369</t>
+          <t>https://www.tokopedia.com/logitech/logitech-b175-mouse-wireless-untuk-windows-mac-linux-dan-chromeos?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>173626.6</v>
+        <v>173651.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1722207942</v>
+        <v>1399026774</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baju Tidur Wanita Setelan Panjang / Piyama Set Kimono</t>
+          <t>Canon AS-120V Calculator Desktop Kalkulator Stylish Warna Colorful AS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp118.340</t>
+          <t>Rp59.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/twinolshop-2/baju-tidur-wanita-setelan-panjang-piyama-set-kimono-pink-leaf?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/omegaelectronic/canon-as-120v-calculator-desktop-kalkulator-stylish-warna-colorful-as-orange?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4107.8</v>
+        <v>5470</v>
       </c>
     </row>
   </sheetData>
@@ -892,44 +892,44 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1862123531</v>
+        <v>732844445</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logitech G304 Lightspeed Wireless Gaming Mouse - Logitech G-304</t>
+          <t>Logitech B100 Mouse Kabel USB Optical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp498.000</t>
+          <t>Rp50.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/duniacom-srv/logitech-g304-lightspeed-wireless-gaming-mouse-logitech-g-304-putih?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/logitech/logitech-b100-mouse-kabel-usb-optical?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.973817219257057</v>
+        <v>8.003246226535543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1977206481</v>
+        <v>2046226566</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lingerie Sexy Outer+Dress Transparan Piyama Baju Tidur Kimono Lr11</t>
+          <t>Calculator Kalkulator Joyko CC-47CO 12 Digits Check Correct</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rp92.000</t>
+          <t>Rp30.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -939,11 +939,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/officialbianglalaid/lingerie-sexy-outer-dress-transparan-piyama-baju-tidur-kimono-lr11-merah?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+          <t>https://www.tokopedia.com/joyko/calculator-kalkulator-joyko-cc-47co-12-digits-check-correct-green?extParam=ivf%3Dfalse%26src%3Dsearch</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.482186883868269</v>
+        <v>5.276545718199756</v>
       </c>
     </row>
   </sheetData>
